--- a/processedFiles/dataTotalsmodel6.xlsx
+++ b/processedFiles/dataTotalsmodel6.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>File</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Yintercept</t>
+  </si>
+  <si>
+    <t>Best Zscore</t>
   </si>
 </sst>
 </file>
@@ -286,8 +289,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -298,13 +331,43 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -634,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -704,61 +767,61 @@
         <v>51</v>
       </c>
       <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>60</v>
       </c>
       <c r="AC1" t="s">
         <v>61</v>
       </c>
       <c r="AD1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL1" t="s">
         <v>65</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>70</v>
       </c>
       <c r="AM1" t="s">
         <v>71</v>
@@ -2549,7 +2612,7 @@
         <v>1.3671880000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2613,8 +2676,96 @@
         <f t="shared" si="0"/>
         <v>0.61049824242419992</v>
       </c>
+      <c r="R19">
+        <f t="shared" ref="R19:AM19" si="1">AVERAGE(R2:R16)</f>
+        <v>1.9520833333333334</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>1.7994140619999999</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>1.3972005213333334</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>2.6865234379999996</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>2.4500651039999997</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>2.1081380206666664</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>2.2902343746666665</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>2.0210937513333334</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>2.4611979180000008</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>2.0235026033333336</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>1.6135416653333332</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="1"/>
+        <v>1.9538411466666668</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="1"/>
+        <v>1.4003255199999998</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="1"/>
+        <v>2.227539062</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="1"/>
+        <v>1.8616536446666667</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="1"/>
+        <v>3.4740234366666671</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="1"/>
+        <v>1.8205729173333332</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="1"/>
+        <v>1.6882161466666668</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="1"/>
+        <v>2.1173177086666666</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="1"/>
+        <v>0.16699218733333335</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="1"/>
+        <v>0.88333333199999986</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="1"/>
+        <v>1.5169270666666667E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2623,63 +2774,151 @@
         <v>0.17710418206225015</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:Q20" si="1">STDEV(D2:D16)</f>
+        <f t="shared" ref="D20:Q20" si="2">STDEV(D2:D16)</f>
         <v>3.0431948090259161E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4163710479404073E-3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1749553634367645E-2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4991559677003004E-3</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0377835445180718E-3</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16557343474361527</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5475171504476895E-3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3651770988078707E-3</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8676731761589652E-2</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7517068739489337E-3</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4045384612654238E-3</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5031787491710743</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6999800915597058E-3</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1751787904422102E-3</v>
       </c>
+      <c r="R20">
+        <f t="shared" ref="R20:AM20" si="3">STDEV(R2:R16)</f>
+        <v>1.1013541738720285</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>1.1127702595044677</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>1.3237344683848016</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>1.207625089404557</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>1.1164950377325316</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>1.1602921972276059</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>1.0281119691279959</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>1.262466111436473</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>1.1384782368495403</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="3"/>
+        <v>0.97918171775199214</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="3"/>
+        <v>1.1555828669694419</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="3"/>
+        <v>1.0881712016912368</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="3"/>
+        <v>1.0155283774487285</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="3"/>
+        <v>1.3446015341108581</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="3"/>
+        <v>1.23964245566204</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="3"/>
+        <v>0.48207633930809057</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="3"/>
+        <v>1.2718073067921354</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="3"/>
+        <v>1.0637583928325582</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="3"/>
+        <v>1.3007247354383664</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="3"/>
+        <v>7.9469287241965988E-2</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="3"/>
+        <v>0.31561468118792002</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="3"/>
+        <v>8.2523592490411617E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2688,63 +2927,151 @@
         <v>-2.9199689800000002</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:Q21" si="2">MAX(D2:D16)</f>
+        <f t="shared" ref="D21:Q21" si="4">MAX(D2:D16)</f>
         <v>-0.57763042447199997</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.67580887096800002</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.96552590999999999</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.87379905223999998</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77203500000000003</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.25289435</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.45973881977100001</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52173620689699995</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.9325598500000001</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.49666582536800002</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.57708928571399998</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.1724114400000003</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53095855749499998</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.61405727272699995</v>
       </c>
+      <c r="R21">
+        <f t="shared" ref="R21:AM21" si="5">MAX(R2:R16)</f>
+        <v>3.83789062</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>3.8134765599999998</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>3.85742188</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>3.94335938</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="5"/>
+        <v>3.94921875</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="5"/>
+        <v>3.99804688</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="5"/>
+        <v>3.6640625</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="5"/>
+        <v>3.9716796900000002</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="5"/>
+        <v>3.9638671900000002</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="5"/>
+        <v>3.3095703099999998</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="5"/>
+        <v>3.5244140599999998</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="5"/>
+        <v>3.9375</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="5"/>
+        <v>3.5224609400000002</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="5"/>
+        <v>3.90820312</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="5"/>
+        <v>3.90234375</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="5"/>
+        <v>3.8876953099999998</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="5"/>
+        <v>3.9775390599999998</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="5"/>
+        <v>3.9326171900000002</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="5"/>
+        <v>3.9375</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="5"/>
+        <v>0.32128906000000002</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="5"/>
+        <v>1.33789062</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="5"/>
+        <v>3.8085939999999999E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2753,60 +3080,272 @@
         <v>-3.4554750099999998</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:Q22" si="3">MIN(D2:D16)</f>
+        <f t="shared" ref="D22:Q22" si="6">MIN(D2:D16)</f>
         <v>-0.58881206162699995</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.66982177419400002</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.1308806499999999</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.88366954565900002</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.75598500000000002</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.8610355900000002</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.46849577072800003</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.51332413793099996</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.2475711700000001</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.50914910172500005</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.56900714285700005</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.75587435</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.51929438102100001</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.60647090909099999</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22:AM22" si="7">MIN(R2:R16)</f>
+        <v>9.0820310000000001E-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>0.12109375</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="7"/>
+        <v>5.3710939999999999E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="7"/>
+        <v>8.4960939999999999E-2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="7"/>
+        <v>0.54882812000000003</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="7"/>
+        <v>0.20800780999999999</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="7"/>
+        <v>0.43847656000000002</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="7"/>
+        <v>0.16308594000000001</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="7"/>
+        <v>6.5429689999999999E-2</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="7"/>
+        <v>0.1953125</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="7"/>
+        <v>5.9570310000000001E-2</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="7"/>
+        <v>0.37597656000000002</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="7"/>
+        <v>0.1640625</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="7"/>
+        <v>0.27636718999999998</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="7"/>
+        <v>0.21484375</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="7"/>
+        <v>2.1962890599999998</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="7"/>
+        <v>0.11523438</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="7"/>
+        <v>0.34375</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="7"/>
+        <v>8.7890599999999996E-3</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="7"/>
+        <v>0.35253906000000002</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="7"/>
+        <v>5.85938E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>-2.9199689800000002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>-0.58466529812400003</v>
+      </c>
+      <c r="E25">
+        <v>0.67573145161299997</v>
+      </c>
+      <c r="F25">
+        <v>-0.98747980000000002</v>
+      </c>
+      <c r="G25">
+        <v>-0.88113901622500002</v>
+      </c>
+      <c r="H25">
+        <v>0.77144999999999997</v>
+      </c>
+      <c r="I25">
+        <v>-3.4687065000000001</v>
+      </c>
+      <c r="J25">
+        <v>-0.46849577072800003</v>
+      </c>
+      <c r="K25">
+        <v>0.52173620689699995</v>
+      </c>
+      <c r="L25">
+        <v>-1.9325598500000001</v>
+      </c>
+      <c r="M25">
+        <v>-0.50481469844799998</v>
+      </c>
+      <c r="N25">
+        <v>0.57135892857100001</v>
+      </c>
+      <c r="O25">
+        <v>-5.2911297599999996</v>
+      </c>
+      <c r="P25">
+        <v>0.52808421572800002</v>
+      </c>
+      <c r="Q25">
+        <v>0.60647090909099999</v>
+      </c>
+      <c r="R25">
+        <v>9.0820310000000001E-2</v>
+      </c>
+      <c r="S25">
+        <v>2.3486328099999998</v>
+      </c>
+      <c r="T25">
+        <v>0.4609375</v>
+      </c>
+      <c r="U25">
+        <v>3.03125</v>
+      </c>
+      <c r="V25">
+        <v>3.36523438</v>
+      </c>
+      <c r="W25">
+        <v>2.09960938</v>
+      </c>
+      <c r="X25">
+        <v>2.8134765599999998</v>
+      </c>
+      <c r="Y25">
+        <v>1.59277344</v>
+      </c>
+      <c r="Z25">
+        <v>3.2255859400000002</v>
+      </c>
+      <c r="AA25">
+        <v>1.7265625</v>
+      </c>
+      <c r="AB25">
+        <v>3.5244140599999998</v>
+      </c>
+      <c r="AC25">
+        <v>1.38378906</v>
+      </c>
+      <c r="AD25">
+        <v>2.9248046900000002</v>
+      </c>
+      <c r="AE25">
+        <v>3.1513671900000002</v>
+      </c>
+      <c r="AF25">
+        <v>3.90234375</v>
+      </c>
+      <c r="AG25">
+        <v>3.5546875</v>
+      </c>
+      <c r="AH25">
+        <v>0.11523438</v>
+      </c>
+      <c r="AI25">
+        <v>1.01953125</v>
+      </c>
+      <c r="AJ25">
+        <v>1.109375</v>
+      </c>
+      <c r="AK25">
+        <v>0.15429688</v>
+      </c>
+      <c r="AL25">
+        <v>0.66894531000000002</v>
+      </c>
+      <c r="AM25">
+        <v>1.7578119999999999E-2</v>
       </c>
     </row>
   </sheetData>
